--- a/Excel/010_10+primeiros.xlsx
+++ b/Excel/010_10+primeiros.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Curso de Excel\Udemy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17007FB6-A28B-405A-9122-B7333AE44838}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F70BFF-8421-41C0-B874-2FE91534DC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="894" xr2:uid="{193F081A-02DB-4BD2-87B0-9E4D48AC40BC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="894" activeTab="1" xr2:uid="{193F081A-02DB-4BD2-87B0-9E4D48AC40BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Professor" sheetId="14" r:id="rId1"/>
     <sheet name="Aluno" sheetId="15" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aluno!$H$1:$H$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Professor!$A$1:$H$34</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="40">
   <si>
     <t>UF</t>
   </si>
@@ -146,6 +147,10 @@
   </si>
   <si>
     <t>Vestido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Página inicial &gt; Formatação Condicional &gt; Regras de realce de células &gt; Regras de Primeiros/Últimos
+</t>
   </si>
 </sst>
 </file>
@@ -243,7 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -254,23 +259,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -286,127 +287,6 @@
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="225">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="9"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <gradientFill degree="45">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color theme="0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="225">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="-0.49803155613879818"/>
-          </stop>
-        </gradientFill>
       </fill>
     </dxf>
     <dxf>
@@ -432,10 +312,10 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de Tabela Dinâmica 1" table="0" count="1" xr9:uid="{0899B25B-2D16-4A37-8FB0-0893882EC093}">
-      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="headerRow" dxfId="4"/>
     </tableStyle>
     <tableStyle name="Estilo de Tabela Dinâmica 2" table="0" count="1" xr9:uid="{C8D3D828-D729-4C27-A447-A441ABC56B08}">
-      <tableStyleElement type="wholeTable" dxfId="14"/>
+      <tableStyleElement type="wholeTable" dxfId="3"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -755,22 +635,22 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.69140625" customWidth="1"/>
+    <col min="3" max="3" width="21.3828125" customWidth="1"/>
+    <col min="4" max="4" width="21.3828125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.3828125" customWidth="1"/>
+    <col min="7" max="7" width="14.3046875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.3828125" customWidth="1"/>
+    <col min="9" max="9" width="21.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -796,7 +676,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -822,7 +702,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -848,7 +728,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -874,7 +754,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -900,7 +780,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -926,7 +806,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -952,7 +832,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -978,7 +858,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1004,7 +884,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1030,7 +910,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
@@ -1056,7 +936,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
@@ -1082,7 +962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
@@ -1108,7 +988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
@@ -1134,7 +1014,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -1160,7 +1040,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
@@ -1186,7 +1066,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -1212,7 +1092,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>9</v>
       </c>
@@ -1238,7 +1118,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
@@ -1264,7 +1144,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
         <v>9</v>
       </c>
@@ -1290,7 +1170,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -1316,7 +1196,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -1342,7 +1222,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -1368,7 +1248,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>9</v>
       </c>
@@ -1394,7 +1274,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
         <v>9</v>
       </c>
@@ -1420,7 +1300,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
         <v>9</v>
       </c>
@@ -1446,7 +1326,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
         <v>9</v>
       </c>
@@ -1472,7 +1352,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
         <v>9</v>
       </c>
@@ -1498,7 +1378,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
         <v>9</v>
       </c>
@@ -1524,7 +1404,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
         <v>3</v>
       </c>
@@ -1550,7 +1430,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
         <v>7</v>
       </c>
@@ -1576,7 +1456,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
         <v>9</v>
       </c>
@@ -1602,7 +1482,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="4" t="s">
         <v>9</v>
       </c>
@@ -1628,7 +1508,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="4" t="s">
         <v>9</v>
       </c>
@@ -1657,8 +1537,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2:H34">
-    <cfRule type="top10" dxfId="3" priority="1" rank="10"/>
-    <cfRule type="top10" dxfId="2" priority="2" rank="20"/>
+    <cfRule type="top10" dxfId="2" priority="1" rank="10"/>
+    <cfRule type="top10" dxfId="1" priority="2" rank="20"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1667,24 +1547,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDEF0D7-B775-4643-BF43-1CCD16C3E508}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.69140625" customWidth="1"/>
+    <col min="3" max="3" width="21.3828125" customWidth="1"/>
+    <col min="4" max="4" width="21.3828125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.3828125" customWidth="1"/>
+    <col min="7" max="7" width="14.3046875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.3828125" customWidth="1"/>
+    <col min="9" max="9" width="21.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1710,7 +1592,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1736,85 +1618,85 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F3" s="6">
-        <v>44168</v>
+        <v>44198</v>
       </c>
       <c r="G3" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H3" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="6">
+        <v>44313</v>
+      </c>
+      <c r="G4" s="4">
+        <v>6</v>
+      </c>
+      <c r="H4" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="6">
-        <v>44278</v>
-      </c>
-      <c r="G4" s="4">
-        <v>3</v>
-      </c>
-      <c r="H4" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="F5" s="6">
-        <v>44166</v>
+        <v>44250</v>
       </c>
       <c r="G5" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H5" s="5">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1828,10 +1710,10 @@
         <v>26</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F6" s="6">
-        <v>44243</v>
+        <v>44166</v>
       </c>
       <c r="G6" s="4">
         <v>4</v>
@@ -1840,7 +1722,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1854,227 +1736,227 @@
         <v>26</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F7" s="6">
-        <v>44320</v>
+        <v>44243</v>
       </c>
       <c r="G7" s="4">
         <v>4</v>
       </c>
       <c r="H7" s="5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="6">
+        <v>44292</v>
+      </c>
+      <c r="G8" s="4">
+        <v>3</v>
+      </c>
+      <c r="H8" s="5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="6">
+        <v>44194</v>
+      </c>
+      <c r="G9" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="6">
-        <v>44198</v>
-      </c>
-      <c r="G8" s="4">
-        <v>5</v>
-      </c>
-      <c r="H8" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="6">
-        <v>44208</v>
-      </c>
-      <c r="G9" s="4">
-        <v>5</v>
-      </c>
       <c r="H9" s="5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F10" s="6">
-        <v>44285</v>
+        <v>44173</v>
       </c>
       <c r="G10" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H10" s="5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11" s="6">
-        <v>44138</v>
+        <v>44320</v>
       </c>
       <c r="G11" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H11" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F12" s="6">
-        <v>44215</v>
+        <v>44208</v>
       </c>
       <c r="G12" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H12" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F13" s="6">
-        <v>44292</v>
+        <v>44285</v>
       </c>
       <c r="G13" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H13" s="5">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F14" s="6">
-        <v>44180</v>
+        <v>44278</v>
       </c>
       <c r="G14" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H14" s="5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F15" s="6">
-        <v>44257</v>
+        <v>44138</v>
       </c>
       <c r="G15" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H15" s="5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
@@ -2091,7 +1973,7 @@
         <v>34</v>
       </c>
       <c r="F16" s="6">
-        <v>44334</v>
+        <v>44180</v>
       </c>
       <c r="G16" s="4">
         <v>9</v>
@@ -2100,59 +1982,59 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F17" s="6">
-        <v>44159</v>
+        <v>44257</v>
       </c>
       <c r="G17" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H17" s="5">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F18" s="6">
-        <v>44236</v>
+        <v>44334</v>
       </c>
       <c r="G18" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H18" s="5">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
@@ -2166,45 +2048,45 @@
         <v>25</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F19" s="6">
-        <v>44313</v>
+        <v>44159</v>
       </c>
       <c r="G19" s="4">
         <v>6</v>
       </c>
       <c r="H19" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F20" s="6">
-        <v>44187</v>
+        <v>44236</v>
       </c>
       <c r="G20" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H20" s="5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -2218,10 +2100,10 @@
         <v>29</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F21" s="6">
-        <v>44264</v>
+        <v>44187</v>
       </c>
       <c r="G21" s="4">
         <v>4</v>
@@ -2230,7 +2112,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -2244,10 +2126,10 @@
         <v>29</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F22" s="6">
-        <v>44341</v>
+        <v>44264</v>
       </c>
       <c r="G22" s="4">
         <v>4</v>
@@ -2256,33 +2138,33 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="6">
+        <v>44341</v>
+      </c>
+      <c r="G23" s="4">
+        <v>4</v>
+      </c>
+      <c r="H23" s="5">
         <v>32</v>
       </c>
-      <c r="F23" s="6">
-        <v>44173</v>
-      </c>
-      <c r="G23" s="4">
-        <v>7</v>
-      </c>
-      <c r="H23" s="5">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>9</v>
       </c>
@@ -2308,7 +2190,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
         <v>9</v>
       </c>
@@ -2334,7 +2216,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
         <v>9</v>
       </c>
@@ -2348,19 +2230,19 @@
         <v>30</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F26" s="6">
-        <v>44194</v>
+        <v>44271</v>
       </c>
       <c r="G26" s="4">
         <v>6</v>
       </c>
       <c r="H26" s="5">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
         <v>9</v>
       </c>
@@ -2374,10 +2256,10 @@
         <v>30</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F27" s="6">
-        <v>44271</v>
+        <v>44348</v>
       </c>
       <c r="G27" s="4">
         <v>6</v>
@@ -2386,33 +2268,33 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F28" s="6">
-        <v>44348</v>
+        <v>44173</v>
       </c>
       <c r="G28" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H28" s="5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
         <v>9</v>
       </c>
@@ -2429,7 +2311,7 @@
         <v>34</v>
       </c>
       <c r="F29" s="6">
-        <v>44173</v>
+        <v>44327</v>
       </c>
       <c r="G29" s="4">
         <v>1</v>
@@ -2438,59 +2320,59 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F30" s="6">
-        <v>44250</v>
+        <v>44168</v>
       </c>
       <c r="G30" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H30" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F31" s="6">
-        <v>44327</v>
+        <v>44215</v>
       </c>
       <c r="G31" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H31" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
         <v>9</v>
       </c>
@@ -2516,7 +2398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="4" t="s">
         <v>9</v>
       </c>
@@ -2542,7 +2424,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="4" t="s">
         <v>9</v>
       </c>
@@ -2568,7 +2450,27 @@
         <v>20</v>
       </c>
     </row>
+    <row r="38" spans="1:8" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+    </row>
   </sheetData>
+  <autoFilter ref="H1:H34" xr:uid="{EDDEF0D7-B775-4643-BF43-1CCD16C3E508}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H34">
+      <sortCondition descending="1" ref="H1:H34"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="B38:F38"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H2:H34">
+    <cfRule type="top10" dxfId="0" priority="1" rank="10"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
